--- a/poissaolosyyt.xlsx
+++ b/poissaolosyyt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harri\Desktop\Työvuorot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C914AC56-EFAD-463F-83B3-7BF5099E9CF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BDDA46-3A3D-4110-83B2-61C1D9D01308}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF7A2D79-2A6C-49A7-8BF9-91805CEB68B3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BF7A2D79-2A6C-49A7-8BF9-91805CEB68B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>LAY OFF - Lomau</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>61081_COOL 3W E</t>
+  </si>
+  <si>
+    <t>61085_COOL 3W L</t>
   </si>
 </sst>
 </file>
@@ -408,55 +411,60 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361FD759-A826-4FA6-A688-B8F5C58E640D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>65112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
